--- a/TERM4/T4B2-ICTICT608-Interact_with_clients/2-assessments/cost.xlsx
+++ b/TERM4/T4B2-ICTICT608-Interact_with_clients/2-assessments/cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B2-ICTICT608-Interact_with_clients\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B2B0FF-D1FC-450B-BF35-A3EF76B8ADB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C883F587-50F2-4E33-BFE7-E8A189F9B29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5C832B60-3FF6-4696-BB68-B818C051FE04}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -164,9 +164,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -506,7 +506,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A13" sqref="A13:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TERM4/T4B2-ICTICT608-Interact_with_clients/2-assessments/cost.xlsx
+++ b/TERM4/T4B2-ICTICT608-Interact_with_clients/2-assessments/cost.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B2-ICTICT608-Interact_with_clients\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C883F587-50F2-4E33-BFE7-E8A189F9B29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861CF70C-58CB-4C8E-83C9-BB4DD65C78D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5C832B60-3FF6-4696-BB68-B818C051FE04}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{5C832B60-3FF6-4696-BB68-B818C051FE04}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cost" sheetId="1" r:id="rId1"/>
+    <sheet name="Cost1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cost2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Simple Website construction</t>
   </si>
@@ -47,9 +48,6 @@
     <t>Staff training</t>
   </si>
   <si>
-    <t>Managed Email Services</t>
-  </si>
-  <si>
     <t>Service</t>
   </si>
   <si>
@@ -62,22 +60,25 @@
     <t>First Year</t>
   </si>
   <si>
-    <t xml:space="preserve">In Australia, an SME is defined as having between 20 and 199 employees, with 50 employees being the most common. Therefore, I will use that data as a reference. </t>
-  </si>
-  <si>
-    <t>Also, based on my experience as a trainer, I typically trained a maximum of 4 employees over two weeks, with three 4-hour sessions each.</t>
-  </si>
-  <si>
-    <t>= 50 employees.</t>
-  </si>
-  <si>
-    <t>= 12 hours training</t>
-  </si>
-  <si>
     <t>= 3-month project</t>
   </si>
   <si>
     <t>Total  First Year</t>
+  </si>
+  <si>
+    <t>= 8 hours training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Australia, an SME is defined as having between 20 and 199 employees. Therefore, I will use that data as a reference. </t>
+  </si>
+  <si>
+    <t>= 20 employees.</t>
+  </si>
+  <si>
+    <t>Also, based on my experience as a trainer, I typically trained staff in 4-long training sessions, so I'm going to assume that a total of 4 hours of training is required. 4-hour sessions, so I'm going to assume that a total of 4 hours of training are required, 1 hour per week.</t>
+  </si>
+  <si>
+    <t>Managed Email Services (1 year)</t>
   </si>
 </sst>
 </file>
@@ -160,7 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -168,6 +169,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -503,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F917D0F-CD16-40D5-AFB5-73A47210429A}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,43 +520,43 @@
     <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -563,55 +567,151 @@
       <c r="B13" s="3">
         <v>5000</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2"/>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="3">
-        <v>2400</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>600</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="C15" s="2">
+        <v>200</v>
+      </c>
+      <c r="D15" s="8">
+        <f>C15*12</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5">
+        <f>SUM(B13:B15)+SUM(D13:D15)</f>
+        <v>9600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A60522-F2CF-4C48-9528-E963C5ADE2C7}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>400</v>
+      </c>
+      <c r="D3" s="3">
+        <f>C3*6</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1600</v>
+      </c>
+      <c r="C4" s="3">
+        <v>200</v>
+      </c>
+      <c r="D4" s="3">
+        <f>C4*12</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="3">
-        <v>900</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1600</v>
-      </c>
-      <c r="C16" s="2">
-        <v>200</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="5">
-        <f>SUM(B13:B16)+D16</f>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>300</v>
+      </c>
+      <c r="D5" s="3">
+        <f>C5</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5">
+        <f>SUM(B2:B5)+SUM(D2:D5)</f>
         <v>11700</v>
       </c>
     </row>

--- a/TERM4/T4B2-ICTICT608-Interact_with_clients/2-assessments/cost.xlsx
+++ b/TERM4/T4B2-ICTICT608-Interact_with_clients/2-assessments/cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B2-ICTICT608-Interact_with_clients\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861CF70C-58CB-4C8E-83C9-BB4DD65C78D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366830C7-1A8D-4820-AD60-A2796DACA589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{5C832B60-3FF6-4696-BB68-B818C051FE04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5C832B60-3FF6-4696-BB68-B818C051FE04}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Simple Website construction</t>
   </si>
@@ -75,10 +75,16 @@
     <t>= 20 employees.</t>
   </si>
   <si>
-    <t>Also, based on my experience as a trainer, I typically trained staff in 4-long training sessions, so I'm going to assume that a total of 4 hours of training is required. 4-hour sessions, so I'm going to assume that a total of 4 hours of training are required, 1 hour per week.</t>
+    <t>Managed Email Services (1 year)</t>
   </si>
   <si>
-    <t>Managed Email Services (1 year)</t>
+    <t>Staff training (x4)</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also, based on my experience as a trainer, I typically trained staff in 4-long training sessions, so I'm going to assume that a total of 8 hours of training is required. </t>
   </si>
 </sst>
 </file>
@@ -157,9 +163,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -170,12 +177,13 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -188,6 +196,1821 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Project Progress - Grow Management Consultants</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cost1!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>progress</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cost1!$A$13:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Simple Website construction</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Staff training</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Managed Email Services (1 year)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cost1!$F$13:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB9A-419F-8E73-55DF994CEB28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="269"/>
+        <c:axId val="74146144"/>
+        <c:axId val="74146624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="74146144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74146624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74146624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74146144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Project Progress - Grow Management Consultants</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cost2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>progress</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Cost2!$A$2:$A$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Cost2!$A$2,Cost2!$A$4:$A$5)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Simple Website construction</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Managed Email Services (1 year)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Staff training (x4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Cost2!$F$2:$F$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Cost2!$F$2,Cost2!$F$4:$F$5)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E2B-4FB9-921D-E2DFA9E0B929}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="269"/>
+        <c:axId val="177881920"/>
+        <c:axId val="177882400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="177881920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="177882400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="177882400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="177881920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="225">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="225">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5EDDB9-E853-20D4-5504-43344075E890}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD985865-2594-7153-9A21-06D6FD44BD85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,45 +2330,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F917D0F-CD16-40D5-AFB5-73A47210429A}">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
@@ -559,48 +2383,60 @@
         <v>6</v>
       </c>
       <c r="E12" s="1"/>
+      <c r="F12" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="3">
         <v>5000</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="3">
         <v>0</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="3">
         <v>0</v>
       </c>
+      <c r="F13" s="8">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="3">
         <v>600</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="3">
         <v>0</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="3">
         <v>0</v>
       </c>
+      <c r="F14" s="9">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3">
         <v>1600</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>200</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="3">
         <f>C15*12</f>
         <v>2400</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -614,15 +2450,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A60522-F2CF-4C48-9528-E963C5ADE2C7}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,7 +2470,7 @@
     <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -646,8 +2483,11 @@
       <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="F1" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,8 +2500,11 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
+      <c r="F2" s="8">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -675,10 +2518,11 @@
         <f>C3*6</f>
         <v>2400</v>
       </c>
+      <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>1600</v>
@@ -690,10 +2534,13 @@
         <f>C4*12</f>
         <v>2400</v>
       </c>
+      <c r="F4" s="8">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -705,8 +2552,11 @@
         <f>C5</f>
         <v>300</v>
       </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -717,5 +2567,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TERM4/T4B2-ICTICT608-Interact_with_clients/2-assessments/cost.xlsx
+++ b/TERM4/T4B2-ICTICT608-Interact_with_clients/2-assessments/cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B2-ICTICT608-Interact_with_clients\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366830C7-1A8D-4820-AD60-A2796DACA589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E637DC-30EA-4091-8964-A8D8601CFA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5C832B60-3FF6-4696-BB68-B818C051FE04}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{5C832B60-3FF6-4696-BB68-B818C051FE04}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost1" sheetId="1" r:id="rId1"/>
@@ -2333,7 +2333,7 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F13" sqref="F13:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2459,7 +2459,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TERM4/T4B2-ICTICT608-Interact_with_clients/2-assessments/cost.xlsx
+++ b/TERM4/T4B2-ICTICT608-Interact_with_clients/2-assessments/cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B2-ICTICT608-Interact_with_clients\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E637DC-30EA-4091-8964-A8D8601CFA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74055624-F285-4891-8C30-A376DAA78901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{5C832B60-3FF6-4696-BB68-B818C051FE04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5C832B60-3FF6-4696-BB68-B818C051FE04}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>= 20 employees.</t>
   </si>
   <si>
-    <t>Managed Email Services (1 year)</t>
-  </si>
-  <si>
     <t>Staff training (x4)</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t xml:space="preserve">Also, based on my experience as a trainer, I typically trained staff in 4-long training sessions, so I'm going to assume that a total of 8 hours of training is required. </t>
+  </si>
+  <si>
+    <t>Managed Email Services (1 year after project)</t>
   </si>
 </sst>
 </file>
@@ -310,7 +310,7 @@
                   <c:v>Staff training</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Managed Email Services (1 year)</c:v>
+                  <c:v>Managed Email Services (1 year after project)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -633,7 +633,7 @@
                   <c:v>Simple Website construction</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Managed Email Services (1 year)</c:v>
+                  <c:v>Managed Email Services (1 year after project)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Staff training (x4)</c:v>
@@ -2332,8 +2332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F917D0F-CD16-40D5-AFB5-73A47210429A}">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2423,7 +2423,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3">
         <v>1600</v>
@@ -2458,8 +2458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A60522-F2CF-4C48-9528-E963C5ADE2C7}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2484,7 +2484,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2522,7 +2522,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3">
         <v>1600</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
